--- a/To Be Modeled/Ford Motor Company.xlsx
+++ b/To Be Modeled/Ford Motor Company.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A66A0D-B296-A14F-BC4F-428DFC47DAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E24444-42B3-EF42-9163-CC92A9B78898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20120" yWindow="500" windowWidth="20840" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1059,6 +1059,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,12 +1076,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2470,12 +2470,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2492,14 +2493,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2507,6 +2508,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2661,9 +2663,9 @@
     <v>Powered by Refinitiv</v>
     <v>15.876300000000001</v>
     <v>10.098800000000001</v>
-    <v>1.5696000000000001</v>
-    <v>-0.14499999999999999</v>
-    <v>-1.0218E-2</v>
+    <v>1.5643</v>
+    <v>-0.17</v>
+    <v>-1.1979999999999999E-2</v>
     <v>USD</v>
     <v>Ford Motor Company is an automobile company. The Company designs, manufactures, markets, and services a full line of electrified passenger and commercial vehicles, such as Ford trucks, utility vehicles, vans, and cars, and Lincoln luxury vehicles. The Company's segments include Ford Blue, Ford Model e, Ford Pro, Ford Next and Ford Credit. Its Ford Blue segment is engaged in developing gas-powered and hybrid vehicles. Its Ford Model e segment is engaged in developing electronic vehicles (EVs) along with embedded software that defines always-on digital experiences for all customers. Its Ford Pro segment is engaged in helping commercial customers transform and expand their businesses with vehicles and services tailored to their needs. Ford Next segment is engaged in pursuing mobility solutions and provides financial services through Ford Motor Credit Company. The Ford Credit segment is primarily engaged in providing vehicle-related financing and leasing activities.</v>
     <v>173000</v>
@@ -2675,20 +2677,20 @@
     <v>3</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45100.745542823439</v>
+    <v>45100.999864895311</v>
     <v>4</v>
     <v>13.92</v>
-    <v>56190814650</v>
+    <v>56090800000</v>
     <v>FORD MOTOR COMPANY</v>
     <v>FORD MOTOR COMPANY</v>
     <v>13.93</v>
-    <v>19.686699999999998</v>
+    <v>19.450900000000001</v>
     <v>14.19</v>
-    <v>14.045</v>
+    <v>14.02</v>
     <v>4000770000</v>
     <v>F</v>
     <v>FORD MOTOR COMPANY (XNYS:F)</v>
-    <v>27208850</v>
+    <v>4498</v>
     <v>64369299</v>
     <v>1919</v>
   </rv>
@@ -3298,7 +3300,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO52" sqref="AO52"/>
+      <selection pane="bottomRight" activeCell="AY30" sqref="AY30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5517,15 +5519,15 @@
       </c>
       <c r="AT16" s="29">
         <f>AU101/AM3</f>
-        <v>0.35550981386461844</v>
+        <v>0.3548770380305839</v>
       </c>
       <c r="AU16" s="29">
         <f>AU101/AM28</f>
-        <v>-28.364873624432104</v>
+        <v>-28.314386673397273</v>
       </c>
       <c r="AV16" s="30">
         <f>AU101/AM107</f>
-        <v>8.1994476360717936</v>
+        <v>8.184853348898292</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -5917,15 +5919,15 @@
       </c>
       <c r="AT19" s="29">
         <f>AU101/AN3</f>
-        <v>0.34685688055555558</v>
+        <v>0.3462395061728395</v>
       </c>
       <c r="AU19" s="29">
         <f>AU101/AN28</f>
-        <v>7.5565915344271115</v>
+        <v>7.5431414739107048</v>
       </c>
       <c r="AV19" s="30">
         <f>AU101/AN106</f>
-        <v>10.862326435337328</v>
+        <v>10.842992460854436</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6367,11 +6369,11 @@
       </c>
       <c r="AU22" s="34">
         <f>(-1*AM98)/AU101</f>
-        <v>3.5753174473685978E-2</v>
+        <v>3.5816925413793346E-2</v>
       </c>
       <c r="AV22" s="35">
         <f>AM107/AU101</f>
-        <v>0.12195943487713788</v>
+        <v>0.12217689888537871</v>
       </c>
     </row>
     <row r="23" spans="1:48" ht="19" x14ac:dyDescent="0.25">
@@ -13810,10 +13812,10 @@
       <c r="AM83" s="1">
         <v>-2576000000</v>
       </c>
-      <c r="AT83" s="68" t="s">
+      <c r="AT83" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="AU83" s="69"/>
+      <c r="AU83" s="71"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13933,10 +13935,10 @@
       <c r="AM84" s="1">
         <v>7268000000</v>
       </c>
-      <c r="AT84" s="70" t="s">
+      <c r="AT84" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="AU84" s="71"/>
+      <c r="AU84" s="73"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -15102,10 +15104,10 @@
       <c r="AM93" s="1">
         <v>-32352000000</v>
       </c>
-      <c r="AT93" s="70" t="s">
+      <c r="AT93" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="AU93" s="71"/>
+      <c r="AU93" s="73"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15230,7 +15232,7 @@
       </c>
       <c r="AU94" s="43">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15356,7 +15358,7 @@
       </c>
       <c r="AU95" s="44" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.5696000000000001</v>
+        <v>1.5643</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15607,7 +15609,7 @@
       </c>
       <c r="AU97" s="42">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.11064019200000001</v>
+        <v>0.110302023</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15728,10 +15730,10 @@
       <c r="AM98" s="1">
         <v>-2009000000</v>
       </c>
-      <c r="AT98" s="70" t="s">
+      <c r="AT98" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="AU98" s="71"/>
+      <c r="AU98" s="73"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15982,7 +15984,7 @@
       </c>
       <c r="AU100" s="40">
         <f>AU99/AU103</f>
-        <v>0.67933074196172472</v>
+        <v>0.67971870007274604</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16108,7 +16110,7 @@
       </c>
       <c r="AU101" s="45" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>56190814650</v>
+        <v>56090800000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16234,7 +16236,7 @@
       </c>
       <c r="AU102" s="40">
         <f>AU101/AU103</f>
-        <v>0.32066925803827528</v>
+        <v>0.32028129992725396</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16360,7 +16362,7 @@
       </c>
       <c r="AU103" s="46">
         <f>AU99+AU101</f>
-        <v>175229814650</v>
+        <v>175129800000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16481,10 +16483,10 @@
       <c r="AM104" s="11">
         <v>25340000000</v>
       </c>
-      <c r="AT104" s="70" t="s">
+      <c r="AT104" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="AU104" s="71"/>
+      <c r="AU104" s="73"/>
     </row>
     <row r="105" spans="1:47" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
@@ -16666,7 +16668,7 @@
       </c>
       <c r="AU105" s="50">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>8.3170125058598249E-2</v>
+        <v>8.3046128006835376E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="22" customHeight="1" x14ac:dyDescent="0.25">
@@ -16972,7 +16974,7 @@
       <c r="AQ107" s="48"/>
       <c r="AR107" s="54">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>167965292569.98615</v>
+        <v>168271367312.03574</v>
       </c>
       <c r="AS107" s="55" t="s">
         <v>155</v>
@@ -17042,7 +17044,7 @@
       </c>
       <c r="AR108" s="54">
         <f>AR107+AR106</f>
-        <v>179246292569.98615</v>
+        <v>179552367312.03574</v>
       </c>
       <c r="AS108" s="55" t="s">
         <v>149</v>
@@ -17052,14 +17054,14 @@
       </c>
       <c r="AU108" s="59">
         <f>AU105</f>
-        <v>8.3170125058598249E-2</v>
+        <v>8.3046128006835376E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="72" t="s">
+      <c r="AN109" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="AO109" s="73"/>
+      <c r="AO109" s="69"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="60" t="s">
@@ -17067,7 +17069,7 @@
       </c>
       <c r="AO110" s="45">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>133793903481.83195</v>
+        <v>134071573769.36679</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -17094,7 +17096,7 @@
       </c>
       <c r="AO113" s="45">
         <f>AO110+AO111-AO112</f>
-        <v>64347903481.83197</v>
+        <v>64625573769.366791</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17112,7 +17114,7 @@
       </c>
       <c r="AO115" s="63">
         <f>AO113/AO114</f>
-        <v>15.976672916443844</v>
+        <v>16.045614515509481</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17121,7 +17123,7 @@
       </c>
       <c r="AO116" s="64" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>14.045</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -17130,7 +17132,7 @@
       </c>
       <c r="AO117" s="66">
         <f>AO115/AO116-1</f>
-        <v>0.13753456151255561</v>
+        <v>0.14448035060695297</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
